--- a/mobi_client/mobi_client/mobi_config/excel/014_1v1推理表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/014_1v1推理表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="VSCourt|1v1推理配置表" sheetId="1" r:id="rId1"/>
@@ -518,6 +518,9 @@
     <t>C2_mirror</t>
   </si>
   <si>
+    <t>土山奥辩论完成</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -551,12 +554,27 @@
     <t>2_为什么要来剧场？|2_观察形势</t>
   </si>
   <si>
+    <t>我想，如果你提到黑影的话，是来剧院找这样东西吧——</t>
+  </si>
+  <si>
+    <t>第二章_心灵遮断合金新|第二章_面具线索|第二章_剧院合照线索|第二章_日记本线索更新|第二章_水晶胸针</t>
+  </si>
+  <si>
+    <t>3_第二章_心灵遮断合金新|3_第二章_面具线索|3_第二章_剧院合照线索|3_第二章_日记本线索更新|3_第二章_水晶胸针</t>
+  </si>
+  <si>
+    <t>这并不完全是一段“快乐”时光，证据就是——</t>
+  </si>
+  <si>
     <t>第二章_傀儡娃娃|第二章_日记本线索更新|第二章_剧院合照线索|第二章_阿斯塔特晶体|第二章_番伞堂纪念照</t>
   </si>
   <si>
     <t>4_第二章_傀儡娃娃|4_第二章_日记本线索更新|4_第二章_剧院合照线索|4_第二章_阿斯塔特晶体|4_第二章_番伞堂纪念照</t>
   </si>
   <si>
+    <t>被财前收购后，得到更悲惨经历的证据是——</t>
+  </si>
+  <si>
     <t>第二章_日记本线索更新|第二章_带徽记的戒指|第二章_合同线索|第二章_傀儡娃娃|第二章_面具线索</t>
   </si>
   <si>
@@ -576,6 +594,9 @@
   </si>
   <si>
     <t>8_黑影的身形|8_黑影的配饰|8_黑影的发色</t>
+  </si>
+  <si>
+    <t>那么这个胸针，究竟是什么造就的呢？</t>
   </si>
   <si>
     <t>第二章_面具线索|第二章_带徽记的戒指|第二章_心灵遮断合金|第二章_阿斯塔特晶体|第二章_水晶胸针</t>
@@ -879,43 +900,15 @@
     <t>#0000FF</t>
   </si>
   <si>
-    <t>土山奥辩论完成</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二章_心灵遮断合金新|第二章_面具线索|第二章_剧院合照线索|第二章_日记本线索更新|第二章_水晶胸针</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_第二章_心灵遮断合金新|3_第二章_面具线索|3_第二章_剧院合照线索|3_第二章_日记本线索更新|3_第二章_水晶胸针</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>我想，如果你提到影子的话，你是来剧院找这样东西吧？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>这并不完全是一段“快乐”时光吧，证据是什么呢？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>被财前收购后，得到更悲惨经历的证据是？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>你所说的老朋友，应该是这个吧！</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>那么这个胸针，究竟是什么造就的呢？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>你所说的“另一个灵魂”，应该是这个吧！</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,7 +940,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="0.79989013336588644"/>
+      <color theme="7" tint="0.79985961485641044"/>
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -958,14 +951,6 @@
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -995,6 +980,14 @@
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1031,6 +1024,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1053,7 +1054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39927365947447124"/>
+        <fgColor theme="3" tint="0.39924314096499525"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,7 +1120,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,7 +1157,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1172,10 +1172,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1184,15 +1187,13 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1869,8 +1870,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="M6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2592,10 +2593,10 @@
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="O21" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="P21" s="11" t="s">
         <v>110</v>
       </c>
       <c r="Q21">
@@ -2632,10 +2633,10 @@
       <c r="J23">
         <v>3</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="P23" s="11" t="s">
         <v>114</v>
       </c>
       <c r="Q23">
@@ -2749,10 +2750,10 @@
       <c r="J29">
         <v>9</v>
       </c>
-      <c r="O29" s="12" t="s">
+      <c r="O29" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="P29" s="12" t="s">
+      <c r="P29" s="11" t="s">
         <v>121</v>
       </c>
       <c r="Q29">
@@ -2769,7 +2770,7 @@
       <c r="J30">
         <v>10</v>
       </c>
-      <c r="R30" s="12" t="s">
+      <c r="R30" s="11" t="s">
         <v>122</v>
       </c>
       <c r="S30" t="s">
@@ -2780,7 +2781,7 @@
       <c r="A31">
         <v>2300</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>124</v>
       </c>
       <c r="C31" t="s">
@@ -2795,14 +2796,14 @@
       <c r="F31" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="12">
         <v>23</v>
       </c>
       <c r="U31" t="s">
         <v>126</v>
       </c>
-      <c r="V31" s="12" t="s">
-        <v>193</v>
+      <c r="V31" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="X31" t="s">
         <v>89</v>
@@ -2817,7 +2818,7 @@
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
-      <c r="G32" s="13">
+      <c r="G32" s="12">
         <v>23</v>
       </c>
       <c r="H32"/>
@@ -2832,11 +2833,11 @@
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
-      <c r="R32" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="S32" s="12" t="s">
+      <c r="R32" s="11" t="s">
         <v>128</v>
+      </c>
+      <c r="S32" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="T32"/>
       <c r="U32"/>
@@ -2853,7 +2854,7 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
-      <c r="G33" s="13">
+      <c r="G33" s="12">
         <v>23</v>
       </c>
       <c r="H33"/>
@@ -2868,11 +2869,11 @@
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
-      <c r="R33" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="S33" s="12" t="s">
+      <c r="R33" s="11" t="s">
         <v>130</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="T33"/>
       <c r="U33"/>
@@ -2889,7 +2890,7 @@
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
-      <c r="G34" s="13">
+      <c r="G34" s="12">
         <v>23</v>
       </c>
       <c r="H34"/>
@@ -2900,14 +2901,14 @@
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
-      <c r="N34" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="O34" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>195</v>
+      <c r="N34" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="Q34"/>
       <c r="T34"/>
@@ -2925,7 +2926,7 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
-      <c r="G35" s="13">
+      <c r="G35" s="12">
         <v>23</v>
       </c>
       <c r="H35"/>
@@ -2936,14 +2937,14 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
-      <c r="N35" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="O35" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="P35" s="12" t="s">
-        <v>132</v>
+      <c r="N35" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="Q35"/>
       <c r="R35"/>
@@ -2963,7 +2964,7 @@
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
-      <c r="G36" s="13">
+      <c r="G36" s="12">
         <v>23</v>
       </c>
       <c r="H36"/>
@@ -2974,14 +2975,14 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
-      <c r="N36" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="P36" s="12" t="s">
-        <v>134</v>
+      <c r="N36" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="Q36"/>
       <c r="R36"/>
@@ -3001,7 +3002,7 @@
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
-      <c r="G37" s="13">
+      <c r="G37" s="12">
         <v>23</v>
       </c>
       <c r="H37"/>
@@ -3016,11 +3017,11 @@
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>135</v>
+      <c r="R37" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="S37" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="T37"/>
       <c r="U37"/>
@@ -3037,7 +3038,7 @@
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
-      <c r="G38" s="13">
+      <c r="G38" s="12">
         <v>23</v>
       </c>
       <c r="H38"/>
@@ -3048,14 +3049,14 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
-      <c r="N38" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="P38" s="12" t="s">
-        <v>137</v>
+      <c r="N38" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="Q38"/>
       <c r="R38"/>
@@ -3075,7 +3076,7 @@
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <v>23</v>
       </c>
       <c r="H39"/>
@@ -3090,11 +3091,11 @@
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
-      <c r="R39" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="S39" s="12" t="s">
-        <v>139</v>
+      <c r="R39" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="T39"/>
       <c r="U39"/>
@@ -3111,7 +3112,7 @@
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
-      <c r="G40" s="13">
+      <c r="G40" s="12">
         <v>23</v>
       </c>
       <c r="H40"/>
@@ -3122,14 +3123,14 @@
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
-      <c r="N40" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="O40" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="P40" s="12" t="s">
-        <v>141</v>
+      <c r="N40" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="Q40"/>
       <c r="T40"/>
@@ -3147,7 +3148,7 @@
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
-      <c r="G41" s="13">
+      <c r="G41" s="12">
         <v>23</v>
       </c>
       <c r="H41"/>
@@ -3162,11 +3163,11 @@
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
-      <c r="R41" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="S41" s="12" t="s">
-        <v>143</v>
+      <c r="R41" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="S41" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="T41"/>
       <c r="U41"/>
@@ -3183,7 +3184,7 @@
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
-      <c r="G42" s="13">
+      <c r="G42" s="12">
         <v>23</v>
       </c>
       <c r="H42"/>
@@ -3198,11 +3199,11 @@
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
-      <c r="R42" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="S42" s="12" t="s">
-        <v>145</v>
+      <c r="R42" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S42" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="T42"/>
       <c r="U42"/>
@@ -3219,7 +3220,7 @@
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
-      <c r="G43" s="13">
+      <c r="G43" s="12">
         <v>23</v>
       </c>
       <c r="H43"/>
@@ -3231,14 +3232,14 @@
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
       <c r="Q43"/>
-      <c r="R43" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="S43" s="12" t="s">
-        <v>147</v>
+      <c r="R43" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S43" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="T43"/>
       <c r="U43"/>
@@ -3247,40 +3248,40 @@
       <c r="X43"/>
     </row>
     <row r="44" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14">
+      <c r="A44" s="13">
         <v>3000</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="14" t="s">
+      <c r="B44" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="14">
         <v>30</v>
       </c>
       <c r="H44"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="14"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="13"/>
       <c r="U44" s="11" t="s">
         <v>86</v>
       </c>
@@ -3293,425 +3294,425 @@
       </c>
     </row>
     <row r="45" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="16">
+      <c r="A45" s="15">
         <v>3001</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16">
         <v>30</v>
       </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16">
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15">
         <v>1</v>
       </c>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="S45" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="T45" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="S45" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="T45" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
     </row>
     <row r="46" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="16">
+      <c r="A46" s="15">
         <v>3002</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="16">
         <v>30</v>
       </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16">
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15">
         <v>2</v>
       </c>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="S46" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="T46" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="S46" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="T46" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
     </row>
     <row r="47" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="16">
+      <c r="A47" s="15">
         <v>3003</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="16">
         <v>30</v>
       </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16">
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15">
         <v>3</v>
       </c>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="S47" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="T47" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="16"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="S47" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="T47" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
     </row>
     <row r="48" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="16">
+      <c r="A48" s="15">
         <v>3004</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16">
         <v>30</v>
       </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16">
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15">
         <v>4</v>
       </c>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="S48" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="T48" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="16"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="S48" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="T48" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
     </row>
     <row r="49" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="16">
+      <c r="A49" s="15">
         <v>3005</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="16">
         <v>30</v>
       </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16">
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15">
         <v>5</v>
       </c>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="S49" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="T49" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="16"/>
-      <c r="X49" s="16"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="S49" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="T49" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
     </row>
     <row r="50" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="16">
+      <c r="A50" s="15">
         <v>3006</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="16">
         <v>30</v>
       </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16">
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15">
         <v>6</v>
       </c>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="16"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
     </row>
     <row r="51" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="16">
+      <c r="A51" s="15">
         <v>3007</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17">
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="16">
         <v>30</v>
       </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16">
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15">
         <v>7</v>
       </c>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
-      <c r="W51" s="16"/>
-      <c r="X51" s="16"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
     </row>
     <row r="52" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="16">
+      <c r="A52" s="15">
         <v>3008</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17">
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="16">
         <v>30</v>
       </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16">
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15">
         <v>8</v>
       </c>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
     </row>
     <row r="53" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="16">
+      <c r="A53" s="15">
         <v>3009</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="17">
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="16">
         <v>30</v>
       </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16">
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15">
         <v>9</v>
       </c>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="16"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="15"/>
     </row>
     <row r="54" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="16">
+      <c r="A54" s="15">
         <v>3010</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="17">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="16">
         <v>30</v>
       </c>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16">
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15">
         <v>10</v>
       </c>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="16"/>
-      <c r="X54" s="16"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
     </row>
     <row r="55" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="16">
+      <c r="A55" s="15">
         <v>3011</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="17">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="16">
         <v>30</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16">
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15">
         <v>11</v>
       </c>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="16"/>
-      <c r="W55" s="16"/>
-      <c r="X55" s="16"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="15"/>
     </row>
     <row r="56" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="16">
+      <c r="A56" s="15">
         <v>3012</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="17">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="16">
         <v>30</v>
       </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16">
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15">
         <v>12</v>
       </c>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="16"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>900000</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
         <v>52</v>
@@ -3730,10 +3731,10 @@
       </c>
       <c r="H57" s="10"/>
       <c r="U57" s="11" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="V57" s="11" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="W57" s="11" t="s">
         <v>88</v>
@@ -3754,10 +3755,10 @@
         <v>1</v>
       </c>
       <c r="R58" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="S58" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
@@ -3772,7 +3773,7 @@
         <v>2</v>
       </c>
       <c r="R59" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="S59" t="s">
         <v>93</v>
@@ -3790,10 +3791,10 @@
         <v>3</v>
       </c>
       <c r="R60" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="S60" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
@@ -3808,10 +3809,10 @@
         <v>4</v>
       </c>
       <c r="R61" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="S61" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
@@ -3826,14 +3827,14 @@
         <v>5</v>
       </c>
       <c r="R62" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="S62" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
@@ -3863,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3883,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3926,10 +3927,10 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F4">
         <v>17</v>
@@ -3943,10 +3944,10 @@
         <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3957,20 +3958,20 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F6">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/014_1v1推理表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/014_1v1推理表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mobi\01_source\mobi_client\mobi_client\mobi_config\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="14340"/>
+    <workbookView windowWidth="17325" windowHeight="25140"/>
   </bookViews>
   <sheets>
     <sheet name="VSCourt|1v1推理配置表" sheetId="1" r:id="rId1"/>
@@ -25,14 +20,13 @@
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>DELL:</t>
@@ -41,7 +35,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,14 +44,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>DELL:</t>
@@ -67,7 +59,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -81,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="200">
   <si>
     <t>id</t>
   </si>
@@ -397,7 +388,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -408,7 +398,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -419,7 +408,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -430,7 +418,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -441,7 +428,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -521,36 +507,12 @@
     <t>土山奥辩论完成</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>为什么要来剧场？|观察形势|***测试用*直接胜利</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>***</t>
-    </r>
-  </si>
-  <si>
-    <t>1_为什么要来剧场？|1_观察形势|1_直接胜利</t>
-  </si>
-  <si>
     <t>为什么要来剧场？|观察形势</t>
   </si>
   <si>
+    <t>1_为什么要来剧场？|1_观察形势</t>
+  </si>
+  <si>
     <t>2_为什么要来剧场？|2_观察形势</t>
   </si>
   <si>
@@ -566,7 +528,7 @@
     <t>这并不完全是一段“快乐”时光，证据就是——</t>
   </si>
   <si>
-    <t>第二章_傀儡娃娃|第二章_日记本线索更新|第二章_剧院合照线索|第二章_阿斯塔特晶体|第二章_番伞堂纪念照</t>
+    <t>第二章_傀儡娃娃|第二章_日记本线索更新|第二章_剧院合照线索|第二章_阿斯塔特晶体|第二章_番伞堂纪念照更新</t>
   </si>
   <si>
     <t>4_第二章_傀儡娃娃|4_第二章_日记本线索更新|4_第二章_剧院合照线索|4_第二章_阿斯塔特晶体|4_第二章_番伞堂纪念照</t>
@@ -582,6 +544,9 @@
   </si>
   <si>
     <t>6_为什么要来剧场？|6_观察形势</t>
+  </si>
+  <si>
+    <t>你所说的“另一个灵魂”，应该是这个吧！</t>
   </si>
   <si>
     <t>第二章_剧院的黑影|第二章_带徽记的戒指|第二章_傀儡娃娃|第二章_阿斯塔特晶体|第二章_日记本线索更新</t>
@@ -633,7 +598,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="黑体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1-1-1你可以放心的把真相告诉我们|1-1-2其实我们也没发现什么|</t>
@@ -643,7 +607,6 @@
         <sz val="11"/>
         <color rgb="FFFFFF00"/>
         <rFont val="黑体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1-1-3出示了正确的线索</t>
@@ -661,7 +624,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="黑体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1-2</t>
@@ -671,7 +633,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="黑体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的错误缓冲</t>
@@ -681,7 +642,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="黑体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -691,7 +651,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="黑体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -701,7 +660,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="黑体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1-2的正确缓冲</t>
@@ -711,7 +669,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="黑体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|1-2的错误缓冲</t>
@@ -721,7 +678,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="黑体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -744,7 +700,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="黑体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>出示邱染的死亡新闻×|出示邱染和漆异之的合影×|出示邱染写的电子邮件√</t>
@@ -753,7 +708,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="黑体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|出示头环的图纸×</t>
@@ -764,7 +718,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="黑体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>414错误回答|413错误回答</t>
@@ -772,9 +725,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.0499893185216834"/>
         <rFont val="黑体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -785,7 +737,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="黑体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>460正确回答</t>
@@ -794,7 +745,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="黑体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|480错误回答</t>
@@ -899,16 +849,18 @@
   <si>
     <t>#0000FF</t>
   </si>
-  <si>
-    <t>你所说的“另一个灵魂”，应该是这个吧！</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,7 +873,6 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -929,33 +880,28 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="0.79985961485641044"/>
+      <color theme="7" tint="0.79985961485641"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -963,14 +909,12 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -978,68 +922,183 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
+      <color theme="1" tint="0.0499893185216834"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1054,13 +1113,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39924314096499525"/>
+        <fgColor theme="3" tint="0.399243140964995"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,8 +1141,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1117,31 +1356,273 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1153,7 +1634,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1163,7 +1644,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1193,27 +1674,70 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -1222,7 +1746,7 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -1271,7 +1795,7 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="文本框 2"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -1320,7 +1844,7 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="文本框 4"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -1369,7 +1893,7 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="文本框 5"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -1418,7 +1942,7 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="文本框 6"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -1467,7 +1991,7 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="文本框 7"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -1516,7 +2040,7 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="文本框 8"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -1565,7 +2089,7 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="文本框 9"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -1861,20 +2385,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="8.625" customWidth="1"/>
@@ -1899,7 +2422,7 @@
     <col min="24" max="24" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" ht="36" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +2496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +2570,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="5" t="s">
         <v>47</v>
       </c>
@@ -2121,7 +2644,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>100</v>
       </c>
@@ -2150,7 +2673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>101</v>
       </c>
@@ -2182,7 +2705,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>102</v>
       </c>
@@ -2214,7 +2737,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>103</v>
       </c>
@@ -2246,7 +2769,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>200</v>
       </c>
@@ -2275,7 +2798,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>201</v>
       </c>
@@ -2314,7 +2837,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>202</v>
       </c>
@@ -2353,7 +2876,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>203</v>
       </c>
@@ -2392,7 +2915,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>2100</v>
       </c>
@@ -2428,7 +2951,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>2101</v>
       </c>
@@ -2446,7 +2969,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>2102</v>
       </c>
@@ -2464,7 +2987,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>2103</v>
       </c>
@@ -2482,7 +3005,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>2104</v>
       </c>
@@ -2500,7 +3023,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>2105</v>
       </c>
@@ -2518,7 +3041,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>2106</v>
       </c>
@@ -2536,7 +3059,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>2107</v>
       </c>
@@ -2554,7 +3077,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>2200</v>
       </c>
@@ -2583,7 +3106,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>2201</v>
       </c>
@@ -2603,7 +3126,7 @@
         <v>13108</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>2202</v>
       </c>
@@ -2623,7 +3146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>2203</v>
       </c>
@@ -2643,7 +3166,7 @@
         <v>13111</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>2204</v>
       </c>
@@ -2663,7 +3186,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>2205</v>
       </c>
@@ -2680,7 +3203,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>2206</v>
       </c>
@@ -2700,7 +3223,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>2207</v>
       </c>
@@ -2720,7 +3243,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>2208</v>
       </c>
@@ -2740,7 +3263,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>2209</v>
       </c>
@@ -2760,7 +3283,7 @@
         <v>13124</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>2210</v>
       </c>
@@ -2777,7 +3300,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24">
       <c r="A31">
         <v>2300</v>
       </c>
@@ -2809,7 +3332,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" s="7" customFormat="1" spans="1:24">
       <c r="A32">
         <v>2301</v>
       </c>
@@ -2845,7 +3368,7 @@
       <c r="W32"/>
       <c r="X32"/>
     </row>
-    <row r="33" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" s="7" customFormat="1" spans="1:24">
       <c r="A33">
         <v>2302</v>
       </c>
@@ -2870,10 +3393,10 @@
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="S33" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="S33" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="T33"/>
       <c r="U33"/>
@@ -2881,7 +3404,7 @@
       <c r="W33"/>
       <c r="X33"/>
     </row>
-    <row r="34" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" s="7" customFormat="1" spans="1:24">
       <c r="A34">
         <v>2303</v>
       </c>
@@ -2902,13 +3425,13 @@
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O34" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="O34" s="11" t="s">
+      <c r="P34" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="P34" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="Q34"/>
       <c r="T34"/>
@@ -2917,7 +3440,7 @@
       <c r="W34"/>
       <c r="X34"/>
     </row>
-    <row r="35" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" s="7" customFormat="1" spans="1:24">
       <c r="A35">
         <v>2304</v>
       </c>
@@ -2938,13 +3461,13 @@
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O35" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="O35" s="11" t="s">
+      <c r="P35" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="P35" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="Q35"/>
       <c r="R35"/>
@@ -2955,7 +3478,7 @@
       <c r="W35"/>
       <c r="X35"/>
     </row>
-    <row r="36" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" s="7" customFormat="1" spans="1:24">
       <c r="A36">
         <v>2305</v>
       </c>
@@ -2976,13 +3499,13 @@
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="O36" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="O36" s="11" t="s">
+      <c r="P36" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="P36" s="11" t="s">
-        <v>140</v>
       </c>
       <c r="Q36"/>
       <c r="R36"/>
@@ -2993,7 +3516,7 @@
       <c r="W36"/>
       <c r="X36"/>
     </row>
-    <row r="37" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" s="7" customFormat="1" spans="1:24">
       <c r="A37">
         <v>2306</v>
       </c>
@@ -3018,10 +3541,10 @@
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T37"/>
       <c r="U37"/>
@@ -3029,7 +3552,7 @@
       <c r="W37"/>
       <c r="X37"/>
     </row>
-    <row r="38" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" s="7" customFormat="1" spans="1:24">
       <c r="A38">
         <v>2307</v>
       </c>
@@ -3049,8 +3572,8 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
-      <c r="N38" s="24" t="s">
-        <v>200</v>
+      <c r="N38" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="O38" s="11" t="s">
         <v>142</v>
@@ -3067,7 +3590,7 @@
       <c r="W38"/>
       <c r="X38"/>
     </row>
-    <row r="39" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" s="7" customFormat="1" spans="1:24">
       <c r="A39">
         <v>2308</v>
       </c>
@@ -3103,7 +3626,7 @@
       <c r="W39"/>
       <c r="X39"/>
     </row>
-    <row r="40" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" s="7" customFormat="1" spans="1:24">
       <c r="A40">
         <v>2309</v>
       </c>
@@ -3139,7 +3662,7 @@
       <c r="W40"/>
       <c r="X40"/>
     </row>
-    <row r="41" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" s="7" customFormat="1" spans="1:24">
       <c r="A41">
         <v>2310</v>
       </c>
@@ -3175,7 +3698,7 @@
       <c r="W41"/>
       <c r="X41"/>
     </row>
-    <row r="42" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" s="7" customFormat="1" spans="1:24">
       <c r="A42">
         <v>2311</v>
       </c>
@@ -3211,7 +3734,7 @@
       <c r="W42"/>
       <c r="X42"/>
     </row>
-    <row r="43" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" s="7" customFormat="1" spans="1:24">
       <c r="A43">
         <v>2312</v>
       </c>
@@ -3247,7 +3770,7 @@
       <c r="W43"/>
       <c r="X43"/>
     </row>
-    <row r="44" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" s="8" customFormat="1" spans="1:24">
       <c r="A44" s="13">
         <v>3000</v>
       </c>
@@ -3293,7 +3816,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="45" s="9" customFormat="1" ht="13.5" spans="1:24">
       <c r="A45" s="15">
         <v>3001</v>
       </c>
@@ -3331,7 +3854,7 @@
       <c r="W45" s="15"/>
       <c r="X45" s="15"/>
     </row>
-    <row r="46" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="46" s="9" customFormat="1" ht="13.5" spans="1:24">
       <c r="A46" s="15">
         <v>3002</v>
       </c>
@@ -3369,7 +3892,7 @@
       <c r="W46" s="15"/>
       <c r="X46" s="15"/>
     </row>
-    <row r="47" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="47" s="9" customFormat="1" ht="13.5" spans="1:24">
       <c r="A47" s="15">
         <v>3003</v>
       </c>
@@ -3407,7 +3930,7 @@
       <c r="W47" s="15"/>
       <c r="X47" s="15"/>
     </row>
-    <row r="48" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="48" s="9" customFormat="1" ht="13.5" spans="1:24">
       <c r="A48" s="15">
         <v>3004</v>
       </c>
@@ -3445,7 +3968,7 @@
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
     </row>
-    <row r="49" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="49" s="9" customFormat="1" ht="13.5" spans="1:24">
       <c r="A49" s="15">
         <v>3005</v>
       </c>
@@ -3483,7 +4006,7 @@
       <c r="W49" s="15"/>
       <c r="X49" s="15"/>
     </row>
-    <row r="50" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="50" s="9" customFormat="1" ht="13.5" spans="1:24">
       <c r="A50" s="15">
         <v>3006</v>
       </c>
@@ -3515,7 +4038,7 @@
       <c r="W50" s="15"/>
       <c r="X50" s="15"/>
     </row>
-    <row r="51" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="51" s="9" customFormat="1" ht="13.5" spans="1:24">
       <c r="A51" s="15">
         <v>3007</v>
       </c>
@@ -3547,7 +4070,7 @@
       <c r="W51" s="15"/>
       <c r="X51" s="15"/>
     </row>
-    <row r="52" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="52" s="9" customFormat="1" ht="13.5" spans="1:24">
       <c r="A52" s="15">
         <v>3008</v>
       </c>
@@ -3579,7 +4102,7 @@
       <c r="W52" s="15"/>
       <c r="X52" s="15"/>
     </row>
-    <row r="53" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="53" s="9" customFormat="1" ht="13.5" spans="1:24">
       <c r="A53" s="15">
         <v>3009</v>
       </c>
@@ -3611,7 +4134,7 @@
       <c r="W53" s="15"/>
       <c r="X53" s="15"/>
     </row>
-    <row r="54" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="54" s="9" customFormat="1" ht="13.5" spans="1:24">
       <c r="A54" s="15">
         <v>3010</v>
       </c>
@@ -3643,7 +4166,7 @@
       <c r="W54" s="15"/>
       <c r="X54" s="15"/>
     </row>
-    <row r="55" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="55" s="9" customFormat="1" ht="13.5" spans="1:24">
       <c r="A55" s="15">
         <v>3011</v>
       </c>
@@ -3675,7 +4198,7 @@
       <c r="W55" s="15"/>
       <c r="X55" s="15"/>
     </row>
-    <row r="56" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="56" s="9" customFormat="1" ht="13.5" spans="1:24">
       <c r="A56" s="15">
         <v>3012</v>
       </c>
@@ -3707,7 +4230,7 @@
       <c r="W56" s="15"/>
       <c r="X56" s="15"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24">
       <c r="A57">
         <v>900000</v>
       </c>
@@ -3743,7 +4266,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19">
       <c r="A58">
         <v>900001</v>
       </c>
@@ -3761,7 +4284,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19">
       <c r="A59">
         <v>900002</v>
       </c>
@@ -3779,7 +4302,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19">
       <c r="A60">
         <v>900003</v>
       </c>
@@ -3797,7 +4320,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19">
       <c r="A61">
         <v>900004</v>
       </c>
@@ -3815,7 +4338,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19">
       <c r="A62">
         <v>900005</v>
       </c>
@@ -3834,16 +4357,16 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -3851,7 +4374,7 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
@@ -3859,7 +4382,7 @@
     <col min="6" max="6" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3879,7 +4402,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3899,7 +4422,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>47</v>
       </c>
@@ -3919,7 +4442,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="15" customHeight="1" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3936,7 +4459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3953,7 +4476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3971,7 +4494,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>